--- a/Excel/技能表.xlsx
+++ b/Excel/技能表.xlsx
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -176,6 +176,22 @@
   </si>
   <si>
     <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,19 +532,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -536,10 +552,10 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -548,10 +564,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,22 +578,25 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -582,22 +604,25 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -605,22 +630,25 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -637,13 +665,16 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -657,16 +688,19 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>600</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -680,16 +714,19 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -700,19 +737,22 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>600</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -723,19 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10006</v>
       </c>
@@ -746,19 +789,22 @@
         <v>6</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>600</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -769,15 +815,18 @@
         <v>7</v>
       </c>
       <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7</v>
       </c>
     </row>
